--- a/Evaluation/Classeur1.xlsx
+++ b/Evaluation/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42D18822-43E7-49F9-8BCB-BA7F39B3E5CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D3A5738-1C58-4861-A967-07FBACA25B48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B7B9EB1A-3F99-4D80-94F7-87DE04B29059}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Note /20</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c2</t>
   </si>
 </sst>
 </file>
@@ -516,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,6 +781,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,7 +1236,7 @@
       <xdr:rowOff>146447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>32147</xdr:rowOff>
@@ -1521,13 +1566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1CC4C0-9DC3-406D-9581-5D2ACBD33569}">
-  <dimension ref="A1:AN106"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="AI50" sqref="AI50:AI54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,14 +1580,14 @@
     <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
-    <col min="5" max="34" width="5.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" style="2" customWidth="1"/>
-    <col min="37" max="37" width="6.42578125" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="35" width="5.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="6.42578125" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="80">
         <v>33</v>
       </c>
@@ -1645,19 +1690,20 @@
       <c r="AH1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="75">
-        <f>COUNTIF(AJ5:AJ49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK1" s="74">
-        <f>45-AJ1</f>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="75">
+        <f>COUNTIF(AK5:AK49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL1" s="74">
+        <f>45-AK1</f>
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
@@ -1760,14 +1806,15 @@
       <c r="AH2" s="68">
         <v>1</v>
       </c>
-      <c r="AI2" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
@@ -1870,161 +1917,163 @@
       <c r="AH3" s="61">
         <v>5</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="3">
         <f>SUMPRODUCT(B2:AH2,B3:AH3)</f>
         <v>252.5</v>
       </c>
-      <c r="AJ3" s="2">
-        <f>AI3*20/$AI$3</f>
+      <c r="AK3" s="2">
+        <f>AJ3*20/$AJ$3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="59">
-        <f>B2*B3/$AI$3*20</f>
+        <f>B2*B3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="C4" s="57">
-        <f>C2*C3/$AI$3*20</f>
+        <f>C2*C3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="D4" s="58">
-        <f>D2*D3/$AI$3*20</f>
+        <f>D2*D3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="E4" s="57">
-        <f>E2*E3/$AI$3*20</f>
+        <f>E2*E3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="F4" s="57">
-        <f>F2*F3/$AI$3*20</f>
+        <f>F2*F3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="G4" s="57">
-        <f>G2*G3/$AI$3*20</f>
+        <f>G2*G3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="H4" s="57">
-        <f>H2*H3/$AI$3*20</f>
+        <f>H2*H3/$AJ$3*20</f>
         <v>1.1881188118811881</v>
       </c>
       <c r="I4" s="57">
-        <f>I2*I3/$AI$3*20</f>
+        <f>I2*I3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="J4" s="57">
-        <f>J2*J3/$AI$3*20</f>
+        <f>J2*J3/$AJ$3*20</f>
         <v>0.59405940594059403</v>
       </c>
       <c r="K4" s="57">
-        <f>K2*K3/$AI$3*20</f>
+        <f>K2*K3/$AJ$3*20</f>
         <v>1.1881188118811881</v>
       </c>
       <c r="L4" s="57">
-        <f>L2*L3/$AI$3*20</f>
+        <f>L2*L3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="M4" s="57">
-        <f>M2*M3/$AI$3*20</f>
+        <f>M2*M3/$AJ$3*20</f>
         <v>1.1881188118811881</v>
       </c>
       <c r="N4" s="57">
-        <f>N2*N3/$AI$3*20</f>
+        <f>N2*N3/$AJ$3*20</f>
         <v>0.59405940594059403</v>
       </c>
       <c r="O4" s="57">
-        <f>O2*O3/$AI$3*20</f>
+        <f>O2*O3/$AJ$3*20</f>
         <v>0.19801980198019803</v>
       </c>
       <c r="P4" s="57">
-        <f>P2*P3/$AI$3*20</f>
+        <f>P2*P3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="Q4" s="57">
-        <f>Q2*Q3/$AI$3*20</f>
+        <f>Q2*Q3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="R4" s="57">
-        <f>R2*R3/$AI$3*20</f>
+        <f>R2*R3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="S4" s="57">
-        <f>S2*S3/$AI$3*20</f>
+        <f>S2*S3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="T4" s="57">
-        <f>T2*T3/$AI$3*20</f>
+        <f>T2*T3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="U4" s="57">
-        <f>U2*U3/$AI$3*20</f>
+        <f>U2*U3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="V4" s="57">
-        <f>V2*V3/$AI$3*20</f>
+        <f>V2*V3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="W4" s="57">
-        <f>W2*W3/$AI$3*20</f>
+        <f>W2*W3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="X4" s="57">
-        <f>X2*X3/$AI$3*20</f>
+        <f>X2*X3/$AJ$3*20</f>
         <v>0.79207920792079212</v>
       </c>
       <c r="Y4" s="57">
-        <f>Y2*Y3/$AI$3*20</f>
+        <f>Y2*Y3/$AJ$3*20</f>
         <v>1.1881188118811881</v>
       </c>
       <c r="Z4" s="57">
-        <f>Z2*Z3/$AI$3*20</f>
+        <f>Z2*Z3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AA4" s="57">
-        <f>AA2*AA3/$AI$3*20</f>
+        <f>AA2*AA3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AB4" s="57">
-        <f>AB2*AB3/$AI$3*20</f>
+        <f>AB2*AB3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AC4" s="57">
-        <f>AC2*AC3/$AI$3*20</f>
+        <f>AC2*AC3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AD4" s="57">
-        <f>AD2*AD3/$AI$3*20</f>
+        <f>AD2*AD3/$AJ$3*20</f>
         <v>1.5841584158415842</v>
       </c>
       <c r="AE4" s="57">
-        <f>AE2*AE3/$AI$3*20</f>
+        <f>AE2*AE3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AF4" s="57">
-        <f>AF2*AF3/$AI$3*20</f>
+        <f>AF2*AF3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AG4" s="57">
-        <f>AG2*AG3/$AI$3*20</f>
+        <f>AG2*AG3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="AH4" s="56">
-        <f>AH2*AH3/$AI$3*20</f>
+        <f>AH2*AH3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
-      <c r="AJ4" s="2">
-        <f>AVERAGE(AJ5:AJ49)</f>
+      <c r="AI4" s="83"/>
+      <c r="AK4" s="2">
+        <f>AVERAGE(AK5:AK49)</f>
         <v>5.7724972497249709</v>
       </c>
-      <c r="AK4" s="2">
-        <f>_xlfn.STDEV.S(AJ5:AJ49)</f>
+      <c r="AL4" s="2">
+        <f>_xlfn.STDEV.S(AK5:AK49)</f>
         <v>2.080564566288539</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <v>1</v>
       </c>
@@ -2127,24 +2176,27 @@
       <c r="AH5" s="46">
         <v>0</v>
       </c>
-      <c r="AI5" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B5:AH5)</f>
+      <c r="AI5" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" ref="AJ5:AJ49" si="0">SUMPRODUCT($B$2:$AH$2,B5:AH5)</f>
         <v>83.5</v>
       </c>
-      <c r="AJ5" s="2">
-        <f>AI5*20/$AI$3</f>
+      <c r="AK5" s="2">
+        <f t="shared" ref="AK5:AK49" si="1">AJ5*20/$AJ$3</f>
         <v>6.6138613861386135</v>
       </c>
-      <c r="AK5" s="2">
-        <f>RANK(AJ5,$AJ$5:$AJ$49)</f>
+      <c r="AL5" s="2">
+        <f t="shared" ref="AL5:AL49" si="2">RANK(AK5,$AK$5:$AK$49)</f>
         <v>13</v>
       </c>
-      <c r="AL5" s="12">
-        <f>AJ5*1.72</f>
+      <c r="AM5" s="12">
+        <f t="shared" ref="AM5:AM49" si="3">AK5*1.72</f>
         <v>11.375841584158415</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -2247,31 +2299,34 @@
       <c r="AH6" s="18">
         <v>0</v>
       </c>
-      <c r="AI6" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B6:AH6)</f>
+      <c r="AI6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="0"/>
         <v>136.5</v>
       </c>
-      <c r="AJ6" s="2">
-        <f>AI6*20/$AI$3</f>
+      <c r="AK6" s="2">
+        <f t="shared" si="1"/>
         <v>10.811881188118813</v>
       </c>
-      <c r="AK6" s="2">
-        <f>RANK(AJ6,$AJ$5:$AJ$49)</f>
+      <c r="AL6" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AL6" s="12">
-        <f>AJ6*1.72</f>
+      <c r="AM6" s="12">
+        <f t="shared" si="3"/>
         <v>18.596435643564359</v>
       </c>
-      <c r="AM6" s="1">
-        <f>16.5/AJ6</f>
+      <c r="AN6" s="1">
+        <f>16.5/AK6</f>
         <v>1.526098901098901</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -2374,28 +2429,31 @@
       <c r="AH7" s="18">
         <v>0</v>
       </c>
-      <c r="AI7" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B7:AH7)</f>
+      <c r="AI7" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="AJ7" s="2">
-        <f>AI7*20/$AI$3</f>
+      <c r="AK7" s="2">
+        <f t="shared" si="1"/>
         <v>5.6237623762376234</v>
       </c>
-      <c r="AK7" s="2">
-        <f>RANK(AJ7,$AJ$5:$AJ$49)</f>
+      <c r="AL7" s="2">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AL7" s="12">
-        <f>AJ7*1.72</f>
+      <c r="AM7" s="12">
+        <f t="shared" si="3"/>
         <v>9.6728712871287126</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <f>16.5/10.81</f>
         <v>1.5263644773358001</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>4</v>
       </c>
@@ -2498,24 +2556,27 @@
       <c r="AH8" s="18">
         <v>5</v>
       </c>
-      <c r="AI8" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B8:AH8)</f>
+      <c r="AI8" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="0"/>
         <v>93.5</v>
       </c>
-      <c r="AJ8" s="2">
-        <f>AI8*20/$AI$3</f>
+      <c r="AK8" s="2">
+        <f t="shared" si="1"/>
         <v>7.4059405940594063</v>
       </c>
-      <c r="AK8" s="2">
-        <f>RANK(AJ8,$AJ$5:$AJ$49)</f>
+      <c r="AL8" s="2">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AL8" s="12">
-        <f>AJ8*1.72</f>
+      <c r="AM8" s="12">
+        <f t="shared" si="3"/>
         <v>12.738217821782179</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -2618,24 +2679,27 @@
       <c r="AH9" s="13">
         <v>0</v>
       </c>
-      <c r="AI9" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B9:AH9)</f>
+      <c r="AI9" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="AJ9" s="2">
-        <f>AI9*20/$AI$3</f>
+      <c r="AK9" s="2">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AK9" s="2">
-        <f>RANK(AJ9,$AJ$5:$AJ$49)</f>
+      <c r="AL9" s="2">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="AL9" s="12">
-        <f>AJ9*1.72</f>
+      <c r="AM9" s="12">
+        <f t="shared" si="3"/>
         <v>6.88</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>6</v>
       </c>
@@ -2738,24 +2802,27 @@
       <c r="AH10" s="40">
         <v>0</v>
       </c>
-      <c r="AI10" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B10:AH10)</f>
+      <c r="AI10" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="AJ10" s="2">
-        <f>AI10*20/$AI$3</f>
+      <c r="AK10" s="2">
+        <f t="shared" si="1"/>
         <v>6.6534653465346532</v>
       </c>
-      <c r="AK10" s="2">
-        <f>RANK(AJ10,$AJ$5:$AJ$49)</f>
+      <c r="AL10" s="2">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AL10" s="12">
-        <f>AJ10*1.72</f>
+      <c r="AM10" s="12">
+        <f t="shared" si="3"/>
         <v>11.443960396039603</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>7</v>
       </c>
@@ -2858,24 +2925,27 @@
       <c r="AH11" s="34">
         <v>0</v>
       </c>
-      <c r="AI11" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B11:AH11)</f>
+      <c r="AI11" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="AJ11" s="2">
-        <f>AI11*20/$AI$3</f>
+      <c r="AK11" s="2">
+        <f t="shared" si="1"/>
         <v>4.8712871287128712</v>
       </c>
-      <c r="AK11" s="2">
-        <f>RANK(AJ11,$AJ$5:$AJ$49)</f>
+      <c r="AL11" s="2">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="AL11" s="12">
-        <f>AJ11*1.72</f>
+      <c r="AM11" s="12">
+        <f t="shared" si="3"/>
         <v>8.378613861386139</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>8</v>
       </c>
@@ -2978,24 +3048,27 @@
       <c r="AH12" s="34">
         <v>0</v>
       </c>
-      <c r="AI12" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B12:AH12)</f>
+      <c r="AI12" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="AJ12" s="2">
-        <f>AI12*20/$AI$3</f>
+      <c r="AK12" s="2">
+        <f t="shared" si="1"/>
         <v>5.1881188118811883</v>
       </c>
-      <c r="AK12" s="2">
-        <f>RANK(AJ12,$AJ$5:$AJ$49)</f>
+      <c r="AL12" s="2">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AL12" s="12">
-        <f>AJ12*1.72</f>
+      <c r="AM12" s="12">
+        <f t="shared" si="3"/>
         <v>8.9235643564356444</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>9</v>
       </c>
@@ -3098,24 +3171,27 @@
       <c r="AH13" s="34">
         <v>0</v>
       </c>
-      <c r="AI13" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B13:AH13)</f>
+      <c r="AI13" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="AJ13" s="2">
-        <f>AI13*20/$AI$3</f>
+      <c r="AK13" s="2">
+        <f t="shared" si="1"/>
         <v>6.891089108910891</v>
       </c>
-      <c r="AK13" s="2">
-        <f>RANK(AJ13,$AJ$5:$AJ$49)</f>
+      <c r="AL13" s="2">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AL13" s="12">
-        <f>AJ13*1.72</f>
+      <c r="AM13" s="12">
+        <f t="shared" si="3"/>
         <v>11.852673267326733</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -3218,24 +3294,27 @@
       <c r="AH14" s="29">
         <v>0</v>
       </c>
-      <c r="AI14" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B14:AH14)</f>
+      <c r="AI14" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="AJ14" s="2">
-        <f>AI14*20/$AI$3</f>
+      <c r="AK14" s="2">
+        <f t="shared" si="1"/>
         <v>5.0297029702970297</v>
       </c>
-      <c r="AK14" s="2">
-        <f>RANK(AJ14,$AJ$5:$AJ$49)</f>
+      <c r="AL14" s="2">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AL14" s="12">
-        <f>AJ14*1.72</f>
+      <c r="AM14" s="12">
+        <f t="shared" si="3"/>
         <v>8.6510891089108917</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>11</v>
       </c>
@@ -3338,24 +3417,27 @@
       <c r="AH15" s="46">
         <v>0</v>
       </c>
-      <c r="AI15" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B15:AH15)</f>
+      <c r="AI15" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
-      <c r="AJ15" s="2">
-        <f>AI15*20/$AI$3</f>
+      <c r="AK15" s="2">
+        <f t="shared" si="1"/>
         <v>3.4455445544554455</v>
       </c>
-      <c r="AK15" s="2">
-        <f>RANK(AJ15,$AJ$5:$AJ$49)</f>
+      <c r="AL15" s="2">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AL15" s="12">
-        <f>AJ15*1.72</f>
+      <c r="AM15" s="12">
+        <f t="shared" si="3"/>
         <v>5.9263366336633663</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>12</v>
       </c>
@@ -3458,24 +3540,27 @@
       <c r="AH16" s="18">
         <v>2</v>
       </c>
-      <c r="AI16" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B16:AH16)</f>
+      <c r="AI16" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="AJ16" s="2">
-        <f>AI16*20/$AI$3</f>
+      <c r="AK16" s="2">
+        <f t="shared" si="1"/>
         <v>5.1485148514851486</v>
       </c>
-      <c r="AK16" s="2">
-        <f>RANK(AJ16,$AJ$5:$AJ$49)</f>
+      <c r="AL16" s="2">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="AL16" s="12">
-        <f>AJ16*1.72</f>
+      <c r="AM16" s="12">
+        <f t="shared" si="3"/>
         <v>8.8554455445544562</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>13</v>
       </c>
@@ -3578,24 +3663,27 @@
       <c r="AH17" s="18">
         <v>0</v>
       </c>
-      <c r="AI17" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B17:AH17)</f>
+      <c r="AI17" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="AJ17" s="2">
-        <f>AI17*20/$AI$3</f>
+      <c r="AK17" s="2">
+        <f t="shared" si="1"/>
         <v>6.6138613861386135</v>
       </c>
-      <c r="AK17" s="2">
-        <f>RANK(AJ17,$AJ$5:$AJ$49)</f>
+      <c r="AL17" s="2">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AL17" s="12">
-        <f>AJ17*1.72</f>
+      <c r="AM17" s="12">
+        <f t="shared" si="3"/>
         <v>11.375841584158415</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>14</v>
       </c>
@@ -3698,24 +3786,27 @@
       <c r="AH18" s="18">
         <v>0</v>
       </c>
-      <c r="AI18" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B18:AH18)</f>
+      <c r="AI18" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
-      <c r="AJ18" s="2">
-        <f>AI18*20/$AI$3</f>
+      <c r="AK18" s="2">
+        <f t="shared" si="1"/>
         <v>6.3762376237623766</v>
       </c>
-      <c r="AK18" s="2">
-        <f>RANK(AJ18,$AJ$5:$AJ$49)</f>
+      <c r="AL18" s="2">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AL18" s="12">
-        <f>AJ18*1.72</f>
+      <c r="AM18" s="12">
+        <f t="shared" si="3"/>
         <v>10.967128712871288</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>15</v>
       </c>
@@ -3818,24 +3909,27 @@
       <c r="AH19" s="13">
         <v>0</v>
       </c>
-      <c r="AI19" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B19:AH19)</f>
+      <c r="AI19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="AJ19" s="2">
-        <f>AI19*20/$AI$3</f>
+      <c r="AK19" s="2">
+        <f t="shared" si="1"/>
         <v>5.5445544554455441</v>
       </c>
-      <c r="AK19" s="2">
-        <f>RANK(AJ19,$AJ$5:$AJ$49)</f>
+      <c r="AL19" s="2">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AL19" s="12">
-        <f>AJ19*1.72</f>
+      <c r="AM19" s="12">
+        <f t="shared" si="3"/>
         <v>9.5366336633663362</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>16</v>
       </c>
@@ -3938,24 +4032,27 @@
       <c r="AH20" s="40">
         <v>0</v>
       </c>
-      <c r="AI20" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B20:AH20)</f>
+      <c r="AI20" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="AJ20" s="2">
-        <f>AI20*20/$AI$3</f>
+      <c r="AK20" s="2">
+        <f t="shared" si="1"/>
         <v>6.1782178217821784</v>
       </c>
-      <c r="AK20" s="2">
-        <f>RANK(AJ20,$AJ$5:$AJ$49)</f>
+      <c r="AL20" s="2">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="AL20" s="12">
-        <f>AJ20*1.72</f>
+      <c r="AM20" s="12">
+        <f t="shared" si="3"/>
         <v>10.626534653465347</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>17</v>
       </c>
@@ -4058,24 +4155,27 @@
       <c r="AH21" s="34">
         <v>0</v>
       </c>
-      <c r="AI21" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B21:AH21)</f>
+      <c r="AI21" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="AJ21" s="3">
-        <f>AI21*20/$AI$3</f>
+      <c r="AK21" s="3">
+        <f t="shared" si="1"/>
         <v>5.8217821782178216</v>
       </c>
-      <c r="AK21" s="2">
-        <f>RANK(AJ21,$AJ$5:$AJ$49)</f>
+      <c r="AL21" s="2">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="AL21" s="12">
-        <f>AJ21*1.72</f>
+      <c r="AM21" s="12">
+        <f t="shared" si="3"/>
         <v>10.013465346534653</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>18</v>
       </c>
@@ -4178,24 +4278,27 @@
       <c r="AH22" s="52">
         <v>0</v>
       </c>
-      <c r="AI22" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B22:AH22)</f>
+      <c r="AI22" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="AJ22" s="3">
-        <f>AI22*20/$AI$3</f>
+      <c r="AK22" s="3">
+        <f t="shared" si="1"/>
         <v>9.0297029702970288</v>
       </c>
-      <c r="AK22" s="2">
-        <f>RANK(AJ22,$AJ$5:$AJ$49)</f>
+      <c r="AL22" s="2">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AL22" s="12">
-        <f>AJ22*1.72</f>
+      <c r="AM22" s="12">
+        <f t="shared" si="3"/>
         <v>15.531089108910889</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>19</v>
       </c>
@@ -4298,24 +4401,27 @@
       <c r="AH23" s="34">
         <v>0</v>
       </c>
-      <c r="AI23" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B23:AH23)</f>
+      <c r="AI23" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="AJ23" s="3">
-        <f>AI23*20/$AI$3</f>
+      <c r="AK23" s="3">
+        <f t="shared" si="1"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="AK23" s="2">
-        <f>RANK(AJ23,$AJ$5:$AJ$49)</f>
+      <c r="AL23" s="2">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="AL23" s="12">
-        <f>AJ23*1.72</f>
+      <c r="AM23" s="12">
+        <f t="shared" si="3"/>
         <v>8.5148514851485153</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -4418,24 +4524,27 @@
       <c r="AH24" s="51">
         <v>0</v>
       </c>
-      <c r="AI24" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B24:AH24)</f>
+      <c r="AI24" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="AJ24" s="3">
-        <f>AI24*20/$AI$3</f>
+      <c r="AK24" s="3">
+        <f t="shared" si="1"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="AK24" s="2">
-        <f>RANK(AJ24,$AJ$5:$AJ$49)</f>
+      <c r="AL24" s="2">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="AL24" s="12">
-        <f>AJ24*1.72</f>
+      <c r="AM24" s="12">
+        <f t="shared" si="3"/>
         <v>5.108910891089109</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>21</v>
       </c>
@@ -4538,24 +4647,27 @@
       <c r="AH25" s="46">
         <v>1</v>
       </c>
-      <c r="AI25" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B25:AH25)</f>
+      <c r="AI25" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="0"/>
         <v>164.25</v>
       </c>
-      <c r="AJ25" s="3">
-        <f>AI25*20/$AI$3</f>
+      <c r="AK25" s="3">
+        <f t="shared" si="1"/>
         <v>13.009900990099009</v>
       </c>
-      <c r="AK25" s="2">
-        <f>RANK(AJ25,$AJ$5:$AJ$49)</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="12">
-        <f>AJ25*1.72</f>
+      <c r="AL25" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM25" s="12">
+        <f t="shared" si="3"/>
         <v>22.377029702970294</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>22</v>
       </c>
@@ -4658,24 +4770,27 @@
       <c r="AH26" s="18">
         <v>0</v>
       </c>
-      <c r="AI26" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B26:AH26)</f>
+      <c r="AI26" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="0"/>
         <v>92.75</v>
       </c>
-      <c r="AJ26" s="3">
-        <f>AI26*20/$AI$3</f>
+      <c r="AK26" s="3">
+        <f t="shared" si="1"/>
         <v>7.3465346534653468</v>
       </c>
-      <c r="AK26" s="2">
-        <f>RANK(AJ26,$AJ$5:$AJ$49)</f>
+      <c r="AL26" s="2">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AL26" s="12">
-        <f>AJ26*1.72</f>
+      <c r="AM26" s="12">
+        <f t="shared" si="3"/>
         <v>12.636039603960397</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>23</v>
       </c>
@@ -4762,24 +4877,27 @@
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="18"/>
-      <c r="AI27" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B27:AH27)</f>
+      <c r="AI27" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="AJ27" s="3">
-        <f>AI27*20/$AI$3</f>
+      <c r="AK27" s="3">
+        <f t="shared" si="1"/>
         <v>5.8613861386138613</v>
       </c>
-      <c r="AK27" s="2">
-        <f>RANK(AJ27,$AJ$5:$AJ$49)</f>
+      <c r="AL27" s="2">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AL27" s="12">
-        <f>AJ27*1.72</f>
+      <c r="AM27" s="12">
+        <f t="shared" si="3"/>
         <v>10.081584158415842</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>24</v>
       </c>
@@ -4882,24 +5000,27 @@
       <c r="AH28" s="18">
         <v>0</v>
       </c>
-      <c r="AI28" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B28:AH28)</f>
+      <c r="AI28" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="AJ28" s="3">
-        <f>AI28*20/$AI$3</f>
+      <c r="AK28" s="3">
+        <f t="shared" si="1"/>
         <v>4.435643564356436</v>
       </c>
-      <c r="AK28" s="2">
-        <f>RANK(AJ28,$AJ$5:$AJ$49)</f>
+      <c r="AL28" s="2">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="AL28" s="12">
-        <f>AJ28*1.72</f>
+      <c r="AM28" s="12">
+        <f t="shared" si="3"/>
         <v>7.6293069306930699</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>25</v>
       </c>
@@ -5002,24 +5123,27 @@
       <c r="AH29" s="13">
         <v>0</v>
       </c>
-      <c r="AI29" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B29:AH29)</f>
+      <c r="AI29" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="AJ29" s="3">
-        <f>AI29*20/$AI$3</f>
+      <c r="AK29" s="3">
+        <f t="shared" si="1"/>
         <v>4.9108910891089108</v>
       </c>
-      <c r="AK29" s="2">
-        <f>RANK(AJ29,$AJ$5:$AJ$49)</f>
+      <c r="AL29" s="2">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AL29" s="12">
-        <f>AJ29*1.72</f>
+      <c r="AM29" s="12">
+        <f t="shared" si="3"/>
         <v>8.4467326732673271</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <v>26</v>
       </c>
@@ -5122,24 +5246,27 @@
       <c r="AH30" s="40">
         <v>0</v>
       </c>
-      <c r="AI30" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B30:AH30)</f>
+      <c r="AI30" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AJ30" s="3">
-        <f>AI30*20/$AI$3</f>
+      <c r="AK30" s="3">
+        <f t="shared" si="1"/>
         <v>3.5643564356435644</v>
       </c>
-      <c r="AK30" s="2">
-        <f>RANK(AJ30,$AJ$5:$AJ$49)</f>
+      <c r="AL30" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="AL30" s="12">
-        <f>AJ30*1.72</f>
+      <c r="AM30" s="12">
+        <f t="shared" si="3"/>
         <v>6.1306930693069308</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>27</v>
       </c>
@@ -5242,24 +5369,27 @@
       <c r="AH31" s="34">
         <v>0</v>
       </c>
-      <c r="AI31" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B31:AH31)</f>
+      <c r="AI31" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="AJ31" s="3">
-        <f>AI31*20/$AI$3</f>
+      <c r="AK31" s="3">
+        <f t="shared" si="1"/>
         <v>6.6534653465346532</v>
       </c>
-      <c r="AK31" s="2">
-        <f>RANK(AJ31,$AJ$5:$AJ$49)</f>
+      <c r="AL31" s="2">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AL31" s="12">
-        <f>AJ31*1.72</f>
+      <c r="AM31" s="12">
+        <f t="shared" si="3"/>
         <v>11.443960396039603</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>28</v>
       </c>
@@ -5362,24 +5492,27 @@
       <c r="AH32" s="34">
         <v>0</v>
       </c>
-      <c r="AI32" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B32:AH32)</f>
+      <c r="AI32" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ32" s="3">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="AJ32" s="3">
-        <f>AI32*20/$AI$3</f>
+      <c r="AK32" s="3">
+        <f t="shared" si="1"/>
         <v>8.0792079207920793</v>
       </c>
-      <c r="AK32" s="2">
-        <f>RANK(AJ32,$AJ$5:$AJ$49)</f>
+      <c r="AL32" s="2">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AL32" s="12">
-        <f>AJ32*1.72</f>
+      <c r="AM32" s="12">
+        <f t="shared" si="3"/>
         <v>13.896237623762376</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>29</v>
       </c>
@@ -5482,24 +5615,27 @@
       <c r="AH33" s="34">
         <v>0</v>
       </c>
-      <c r="AI33" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B33:AH33)</f>
+      <c r="AI33" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ33" s="3">
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="AJ33" s="3">
-        <f>AI33*20/$AI$3</f>
+      <c r="AK33" s="3">
+        <f t="shared" si="1"/>
         <v>4.3168316831683171</v>
       </c>
-      <c r="AK33" s="2">
-        <f>RANK(AJ33,$AJ$5:$AJ$49)</f>
+      <c r="AL33" s="2">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="AL33" s="12">
-        <f>AJ33*1.72</f>
+      <c r="AM33" s="12">
+        <f t="shared" si="3"/>
         <v>7.4249504950495053</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
         <v>30</v>
       </c>
@@ -5602,24 +5738,27 @@
       <c r="AH34" s="29">
         <v>0</v>
       </c>
-      <c r="AI34" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B34:AH34)</f>
+      <c r="AI34" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="0"/>
         <v>42.25</v>
       </c>
-      <c r="AJ34" s="3">
-        <f>AI34*20/$AI$3</f>
+      <c r="AK34" s="3">
+        <f t="shared" si="1"/>
         <v>3.3465346534653464</v>
       </c>
-      <c r="AK34" s="2">
-        <f>RANK(AJ34,$AJ$5:$AJ$49)</f>
+      <c r="AL34" s="2">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="AL34" s="12">
-        <f>AJ34*1.72</f>
+      <c r="AM34" s="12">
+        <f t="shared" si="3"/>
         <v>5.7560396039603958</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>31</v>
       </c>
@@ -5722,24 +5861,27 @@
       <c r="AH35" s="46">
         <v>0</v>
       </c>
-      <c r="AI35" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B35:AH35)</f>
+      <c r="AI35" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
-      <c r="AJ35" s="3">
-        <f>AI35*20/$AI$3</f>
+      <c r="AK35" s="3">
+        <f t="shared" si="1"/>
         <v>4.3960396039603964</v>
       </c>
-      <c r="AK35" s="2">
-        <f>RANK(AJ35,$AJ$5:$AJ$49)</f>
+      <c r="AL35" s="2">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AL35" s="12">
-        <f>AJ35*1.72</f>
+      <c r="AM35" s="12">
+        <f t="shared" si="3"/>
         <v>7.5611881188118817</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>32</v>
       </c>
@@ -5842,24 +5984,27 @@
       <c r="AH36" s="18">
         <v>0</v>
       </c>
-      <c r="AI36" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B36:AH36)</f>
+      <c r="AI36" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="AJ36" s="3">
-        <f>AI36*20/$AI$3</f>
+      <c r="AK36" s="3">
+        <f t="shared" si="1"/>
         <v>2.495049504950495</v>
       </c>
-      <c r="AK36" s="2">
-        <f>RANK(AJ36,$AJ$5:$AJ$49)</f>
+      <c r="AL36" s="2">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="AL36" s="12">
-        <f>AJ36*1.72</f>
+      <c r="AM36" s="12">
+        <f t="shared" si="3"/>
         <v>4.2914851485148517</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>33</v>
       </c>
@@ -5962,24 +6107,27 @@
       <c r="AH37" s="18">
         <v>0</v>
       </c>
-      <c r="AI37" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B37:AH37)</f>
+      <c r="AI37" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ37" s="3">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ37" s="3">
-        <f>AI37*20/$AI$3</f>
+      <c r="AK37" s="3">
+        <f t="shared" si="1"/>
         <v>3.8019801980198018</v>
       </c>
-      <c r="AK37" s="2">
-        <f>RANK(AJ37,$AJ$5:$AJ$49)</f>
+      <c r="AL37" s="2">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="AL37" s="12">
-        <f>AJ37*1.72</f>
+      <c r="AM37" s="12">
+        <f t="shared" si="3"/>
         <v>6.539405940594059</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>34</v>
       </c>
@@ -6082,24 +6230,27 @@
       <c r="AH38" s="18">
         <v>4</v>
       </c>
-      <c r="AI38" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B38:AH38)</f>
+      <c r="AI38" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ38" s="3">
+        <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="AJ38" s="3">
-        <f>AI38*20/$AI$3</f>
+      <c r="AK38" s="3">
+        <f t="shared" si="1"/>
         <v>7.2475247524752477</v>
       </c>
-      <c r="AK38" s="2">
-        <f>RANK(AJ38,$AJ$5:$AJ$49)</f>
+      <c r="AL38" s="2">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AL38" s="12">
-        <f>AJ38*1.72</f>
+      <c r="AM38" s="12">
+        <f t="shared" si="3"/>
         <v>12.465742574257426</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>35</v>
       </c>
@@ -6202,24 +6353,27 @@
       <c r="AH39" s="13">
         <v>0</v>
       </c>
-      <c r="AI39" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B39:AH39)</f>
+      <c r="AI39" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ39" s="3">
+        <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="AJ39" s="3">
-        <f>AI39*20/$AI$3</f>
+      <c r="AK39" s="3">
+        <f t="shared" si="1"/>
         <v>4.7920792079207919</v>
       </c>
-      <c r="AK39" s="2">
-        <f>RANK(AJ39,$AJ$5:$AJ$49)</f>
+      <c r="AL39" s="2">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="AL39" s="12">
-        <f>AJ39*1.72</f>
+      <c r="AM39" s="12">
+        <f t="shared" si="3"/>
         <v>8.2423762376237626</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
         <v>36</v>
       </c>
@@ -6322,24 +6476,27 @@
       <c r="AH40" s="40">
         <v>0</v>
       </c>
-      <c r="AI40" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B40:AH40)</f>
+      <c r="AI40" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="AJ40" s="3">
-        <f>AI40*20/$AI$3</f>
+      <c r="AK40" s="3">
+        <f t="shared" si="1"/>
         <v>5.8217821782178216</v>
       </c>
-      <c r="AK40" s="2">
-        <f>RANK(AJ40,$AJ$5:$AJ$49)</f>
+      <c r="AL40" s="2">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="AL40" s="12">
-        <f>AJ40*1.72</f>
+      <c r="AM40" s="12">
+        <f t="shared" si="3"/>
         <v>10.013465346534653</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>37</v>
       </c>
@@ -6442,24 +6599,27 @@
       <c r="AH41" s="34">
         <v>0</v>
       </c>
-      <c r="AI41" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B41:AH41)</f>
+      <c r="AI41" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ41" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AJ41" s="3">
-        <f>AI41*20/$AI$3</f>
+      <c r="AK41" s="3">
+        <f t="shared" si="1"/>
         <v>2.613861386138614</v>
       </c>
-      <c r="AK41" s="2">
-        <f>RANK(AJ41,$AJ$5:$AJ$49)</f>
+      <c r="AL41" s="2">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="AL41" s="12">
-        <f>AJ41*1.72</f>
+      <c r="AM41" s="12">
+        <f t="shared" si="3"/>
         <v>4.4958415841584163</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>38</v>
       </c>
@@ -6562,24 +6722,27 @@
       <c r="AH42" s="34">
         <v>0</v>
       </c>
-      <c r="AI42" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B42:AH42)</f>
+      <c r="AI42" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="AJ42" s="3">
-        <f>AI42*20/$AI$3</f>
+      <c r="AK42" s="3">
+        <f t="shared" si="1"/>
         <v>9.1089108910891081</v>
       </c>
-      <c r="AK42" s="2">
-        <f>RANK(AJ42,$AJ$5:$AJ$49)</f>
-        <v>3</v>
-      </c>
-      <c r="AL42" s="12">
-        <f>AJ42*1.72</f>
+      <c r="AL42" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AM42" s="12">
+        <f t="shared" si="3"/>
         <v>15.667326732673265</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>39</v>
       </c>
@@ -6682,24 +6845,27 @@
       <c r="AH43" s="34">
         <v>0</v>
       </c>
-      <c r="AI43" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B43:AH43)</f>
+      <c r="AI43" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ43" s="3">
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="AJ43" s="3">
-        <f>AI43*20/$AI$3</f>
+      <c r="AK43" s="3">
+        <f t="shared" si="1"/>
         <v>4.3168316831683171</v>
       </c>
-      <c r="AK43" s="2">
-        <f>RANK(AJ43,$AJ$5:$AJ$49)</f>
+      <c r="AL43" s="2">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="AL43" s="12">
-        <f>AJ43*1.72</f>
+      <c r="AM43" s="12">
+        <f t="shared" si="3"/>
         <v>7.4249504950495053</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -6800,24 +6966,27 @@
       <c r="AH44" s="29">
         <v>5</v>
       </c>
-      <c r="AI44" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B44:AH44)</f>
+      <c r="AI44" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ44" s="3">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="AJ44" s="3">
-        <f>AI44*20/$AI$3</f>
+      <c r="AK44" s="3">
+        <f t="shared" si="1"/>
         <v>8.2376237623762378</v>
       </c>
-      <c r="AK44" s="2">
-        <f>RANK(AJ44,$AJ$5:$AJ$49)</f>
-        <v>5</v>
-      </c>
-      <c r="AL44" s="12">
-        <f>AJ44*1.72</f>
+      <c r="AL44" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AM44" s="12">
+        <f t="shared" si="3"/>
         <v>14.168712871287129</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>41</v>
       </c>
@@ -6920,24 +7089,27 @@
       <c r="AH45" s="24">
         <v>5</v>
       </c>
-      <c r="AI45" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B45:AH45)</f>
+      <c r="AI45" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ45" s="3">
+        <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-      <c r="AJ45" s="3">
-        <f>AI45*20/$AI$3</f>
+      <c r="AK45" s="3">
+        <f t="shared" si="1"/>
         <v>5.108910891089109</v>
       </c>
-      <c r="AK45" s="2">
-        <f>RANK(AJ45,$AJ$5:$AJ$49)</f>
+      <c r="AL45" s="2">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="AL45" s="12">
-        <f>AJ45*1.72</f>
+      <c r="AM45" s="12">
+        <f t="shared" si="3"/>
         <v>8.787326732673268</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>42</v>
       </c>
@@ -7040,24 +7212,27 @@
       <c r="AH46" s="18">
         <v>0</v>
       </c>
-      <c r="AI46" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B46:AH46)</f>
+      <c r="AI46" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ46" s="3">
+        <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
-      <c r="AJ46" s="3">
-        <f>AI46*20/$AI$3</f>
+      <c r="AK46" s="3">
+        <f t="shared" si="1"/>
         <v>4.3960396039603964</v>
       </c>
-      <c r="AK46" s="2">
-        <f>RANK(AJ46,$AJ$5:$AJ$49)</f>
+      <c r="AL46" s="2">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AL46" s="12">
-        <f>AJ46*1.72</f>
+      <c r="AM46" s="12">
+        <f t="shared" si="3"/>
         <v>7.5611881188118817</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>43</v>
       </c>
@@ -7160,24 +7335,27 @@
       <c r="AH47" s="18">
         <v>0</v>
       </c>
-      <c r="AI47" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B47:AH47)</f>
+      <c r="AI47" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ47" s="3">
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="AJ47" s="3">
-        <f>AI47*20/$AI$3</f>
+      <c r="AK47" s="3">
+        <f t="shared" si="1"/>
         <v>6.2574257425742577</v>
       </c>
-      <c r="AK47" s="2">
-        <f>RANK(AJ47,$AJ$5:$AJ$49)</f>
+      <c r="AL47" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AL47" s="12">
-        <f>AJ47*1.72</f>
+      <c r="AM47" s="12">
+        <f t="shared" si="3"/>
         <v>10.762772277227723</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>44</v>
       </c>
@@ -7280,24 +7458,27 @@
       <c r="AH48" s="18">
         <v>0</v>
       </c>
-      <c r="AI48" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B48:AH48)</f>
+      <c r="AI48" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ48" s="3">
+        <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="AJ48" s="3">
-        <f>AI48*20/$AI$3</f>
+      <c r="AK48" s="3">
+        <f t="shared" si="1"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="AK48" s="2">
-        <f>RANK(AJ48,$AJ$5:$AJ$49)</f>
+      <c r="AL48" s="2">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AL48" s="12">
-        <f>AJ48*1.72</f>
+      <c r="AM48" s="12">
+        <f t="shared" si="3"/>
         <v>9.3663366336633676</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>45</v>
       </c>
@@ -7400,24 +7581,27 @@
       <c r="AH49" s="13">
         <v>0</v>
       </c>
-      <c r="AI49" s="3">
-        <f>SUMPRODUCT($B$2:$AH$2,B49:AH49)</f>
+      <c r="AI49" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ49" s="3">
+        <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="AJ49" s="3">
-        <f>AI49*20/$AI$3</f>
+      <c r="AK49" s="3">
+        <f t="shared" si="1"/>
         <v>5.0297029702970297</v>
       </c>
-      <c r="AK49" s="2">
-        <f>RANK(AJ49,$AJ$5:$AJ$49)</f>
+      <c r="AL49" s="2">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AL49" s="12">
-        <f>AJ49*1.72</f>
+      <c r="AM49" s="12">
+        <f t="shared" si="3"/>
         <v>8.6510891089108917</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9"/>
@@ -7451,142 +7635,144 @@
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI50" s="84"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <f>SUM(B5:B49)</f>
+        <f t="shared" ref="B51:AH51" si="4">SUM(B5:B49)</f>
         <v>155</v>
       </c>
       <c r="C51" s="2">
-        <f>SUM(C5:C49)</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="D51" s="2">
-        <f>SUM(D5:D49)</f>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="E51" s="2">
-        <f>SUM(E5:E49)</f>
+        <f t="shared" si="4"/>
         <v>147.5</v>
       </c>
       <c r="F51" s="2">
-        <f>SUM(F5:F49)</f>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="G51" s="2">
-        <f>SUM(G5:G49)</f>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="H51" s="2">
-        <f>SUM(H5:H49)</f>
+        <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
       <c r="I51" s="2">
-        <f>SUM(I5:I49)</f>
+        <f t="shared" si="4"/>
         <v>92.5</v>
       </c>
       <c r="J51" s="2">
-        <f>SUM(J5:J49)</f>
+        <f t="shared" si="4"/>
         <v>75.5</v>
       </c>
       <c r="K51" s="2">
-        <f>SUM(K5:K49)</f>
+        <f t="shared" si="4"/>
         <v>101.5</v>
       </c>
       <c r="L51" s="2">
-        <f>SUM(L5:L49)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="M51" s="2">
-        <f>SUM(M5:M49)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="N51" s="2">
-        <f>SUM(N5:N49)</f>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
       <c r="O51" s="2">
-        <f>SUM(O5:O49)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="P51" s="2">
-        <f>SUM(P5:P49)</f>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="Q51" s="2">
-        <f>SUM(Q5:Q49)</f>
+        <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
       <c r="R51" s="2">
-        <f>SUM(R5:R49)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="S51" s="2">
-        <f>SUM(S5:S49)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="T51" s="2">
-        <f>SUM(T5:T49)</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="U51" s="2">
-        <f>SUM(U5:U49)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V51" s="2">
-        <f>SUM(V5:V49)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <f>SUM(W5:W49)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="X51" s="2">
-        <f>SUM(X5:X49)</f>
+        <f t="shared" si="4"/>
         <v>114.5</v>
       </c>
       <c r="Y51" s="2">
-        <f>SUM(Y5:Y49)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="Z51" s="2">
-        <f>SUM(Z5:Z49)</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="AA51" s="2">
-        <f>SUM(AA5:AA49)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AB51" s="2">
-        <f>SUM(AB5:AB49)</f>
+        <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
       <c r="AC51" s="2">
-        <f>SUM(AC5:AC49)</f>
+        <f t="shared" si="4"/>
         <v>31.5</v>
       </c>
       <c r="AD51" s="2">
-        <f>SUM(AD5:AD49)</f>
+        <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
       <c r="AE51" s="2">
-        <f>SUM(AE5:AE49)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="AF51" s="2">
-        <f>SUM(AF5:AF49)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="AG51" s="2">
-        <f>SUM(AG5:AG49)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="AH51" s="2">
-        <f>SUM(AH5:AH49)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI51" s="84"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="9"/>
@@ -7620,18 +7806,25 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI52" s="84"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI53" s="84"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI54" s="84"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y62" s="1">
         <v>3.7425742574257423</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y63" s="1">
         <v>3.9207920792079207</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="6"/>
@@ -7668,9 +7861,10 @@
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AK64" s="1"/>
-    </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="1"/>
+      <c r="AL64" s="1"/>
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="6"/>
@@ -7707,9 +7901,10 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AK65" s="1"/>
-    </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="1"/>
+      <c r="AL65" s="1"/>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="6"/>
@@ -7746,9 +7941,10 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
-      <c r="AK66" s="1"/>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="1"/>
+      <c r="AL66" s="1"/>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="6"/>
@@ -7785,9 +7981,10 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
-      <c r="AK67" s="1"/>
-    </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="1"/>
+      <c r="AL67" s="1"/>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="6"/>
@@ -7824,9 +8021,10 @@
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
-      <c r="AK68" s="1"/>
-    </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="1"/>
+      <c r="AL68" s="1"/>
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="6"/>
@@ -7863,9 +8061,10 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
-      <c r="AK69" s="1"/>
-    </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="1"/>
+      <c r="AL69" s="1"/>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="6"/>
@@ -7902,9 +8101,10 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AK70" s="1"/>
-    </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="1"/>
+      <c r="AL70" s="1"/>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="6"/>
@@ -7941,9 +8141,10 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
-      <c r="AK71" s="1"/>
-    </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="1"/>
+      <c r="AL71" s="1"/>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="6"/>
@@ -7980,9 +8181,10 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AK72" s="1"/>
-    </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="1"/>
+      <c r="AL72" s="1"/>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="6"/>
@@ -8019,9 +8221,10 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
-      <c r="AK73" s="1"/>
-    </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="1"/>
+      <c r="AL73" s="1"/>
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="6"/>
@@ -8058,9 +8261,10 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
-      <c r="AK74" s="1"/>
-    </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="1"/>
+      <c r="AL74" s="1"/>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="6"/>
@@ -8097,9 +8301,10 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
-      <c r="AK75" s="1"/>
-    </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="1"/>
+      <c r="AL75" s="1"/>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="6"/>
@@ -8136,9 +8341,10 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
-      <c r="AK76" s="1"/>
-    </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="1"/>
+      <c r="AL76" s="1"/>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="6"/>
@@ -8175,9 +8381,10 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
-      <c r="AK77" s="1"/>
-    </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="1"/>
+      <c r="AL77" s="1"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="6"/>
@@ -8214,9 +8421,10 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
-      <c r="AK78" s="1"/>
-    </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="1"/>
+      <c r="AL78" s="1"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="6"/>
@@ -8253,9 +8461,10 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
-      <c r="AK79" s="1"/>
-    </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="1"/>
+      <c r="AL79" s="1"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="6"/>
@@ -8292,9 +8501,10 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
-      <c r="AK80" s="1"/>
-    </row>
-    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="1"/>
+      <c r="AL80" s="1"/>
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="6"/>
@@ -8331,9 +8541,10 @@
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
-      <c r="AK81" s="1"/>
-    </row>
-    <row r="82" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="1"/>
+      <c r="AL81" s="1"/>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="6"/>
@@ -8370,9 +8581,10 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
-      <c r="AK82" s="1"/>
-    </row>
-    <row r="83" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="1"/>
+      <c r="AL82" s="1"/>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="6"/>
@@ -8409,9 +8621,10 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
-      <c r="AK83" s="1"/>
-    </row>
-    <row r="84" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="1"/>
+      <c r="AL83" s="1"/>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="6"/>
@@ -8448,9 +8661,10 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
-      <c r="AK84" s="1"/>
-    </row>
-    <row r="85" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="1"/>
+      <c r="AL84" s="1"/>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="6"/>
@@ -8487,9 +8701,10 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
-      <c r="AK85" s="1"/>
-    </row>
-    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="1"/>
+      <c r="AL85" s="1"/>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="6"/>
@@ -8526,9 +8741,10 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
-      <c r="AK86" s="1"/>
-    </row>
-    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="1"/>
+      <c r="AL86" s="1"/>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
@@ -8565,9 +8781,10 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
-      <c r="AK87" s="1"/>
-    </row>
-    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="1"/>
+      <c r="AL87" s="1"/>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
@@ -8604,9 +8821,10 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
-      <c r="AK88" s="1"/>
-    </row>
-    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="1"/>
+      <c r="AL88" s="1"/>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
@@ -8643,9 +8861,10 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
-      <c r="AK89" s="1"/>
-    </row>
-    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="1"/>
+      <c r="AL89" s="1"/>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6"/>
@@ -8682,9 +8901,10 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
-      <c r="AK90" s="1"/>
-    </row>
-    <row r="91" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="1"/>
+      <c r="AL90" s="1"/>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="6"/>
@@ -8721,9 +8941,10 @@
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
-      <c r="AK91" s="1"/>
-    </row>
-    <row r="92" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="1"/>
+      <c r="AL91" s="1"/>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="6"/>
@@ -8760,9 +8981,10 @@
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
-      <c r="AK92" s="1"/>
-    </row>
-    <row r="93" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="1"/>
+      <c r="AL92" s="1"/>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="6"/>
@@ -8799,9 +9021,10 @@
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
-      <c r="AK93" s="1"/>
-    </row>
-    <row r="94" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="1"/>
+      <c r="AL93" s="1"/>
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="6"/>
@@ -8838,9 +9061,10 @@
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
-      <c r="AK94" s="1"/>
-    </row>
-    <row r="95" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="1"/>
+      <c r="AL94" s="1"/>
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="6"/>
@@ -8877,9 +9101,10 @@
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
-      <c r="AK95" s="1"/>
-    </row>
-    <row r="96" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="1"/>
+      <c r="AL95" s="1"/>
+    </row>
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="6"/>
@@ -8916,9 +9141,10 @@
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
-      <c r="AK96" s="1"/>
-    </row>
-    <row r="97" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="1"/>
+      <c r="AL96" s="1"/>
+    </row>
+    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="6"/>
@@ -8955,9 +9181,10 @@
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
-      <c r="AK97" s="1"/>
-    </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="1"/>
+      <c r="AL97" s="1"/>
+    </row>
+    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="6"/>
@@ -8994,9 +9221,10 @@
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
-      <c r="AK98" s="1"/>
-    </row>
-    <row r="99" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="1"/>
+      <c r="AL98" s="1"/>
+    </row>
+    <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="6"/>
@@ -9033,9 +9261,10 @@
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
-      <c r="AK99" s="1"/>
-    </row>
-    <row r="100" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="1"/>
+      <c r="AL99" s="1"/>
+    </row>
+    <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="6"/>
@@ -9072,34 +9301,35 @@
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
-      <c r="AK100" s="1"/>
-    </row>
-    <row r="101" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="1"/>
+      <c r="AL100" s="1"/>
+    </row>
+    <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y101" s="1">
         <v>12.118811881188119</v>
       </c>
     </row>
-    <row r="102" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y102" s="2">
         <v>12.356435643564357</v>
       </c>
     </row>
-    <row r="103" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y103" s="1">
         <v>13.544554455445542</v>
       </c>
     </row>
-    <row r="104" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y104" s="1">
         <v>13.663366336633661</v>
       </c>
     </row>
-    <row r="105" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y105" s="2">
         <v>14.435643564356436</v>
       </c>
     </row>
-    <row r="106" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Y106" s="1">
         <v>19.514851485148512</v>
       </c>
